--- a/xlsx/女权主义_intext.xlsx
+++ b/xlsx/女权主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1091">
   <si>
     <t>女权主义</t>
   </si>
@@ -29,7 +29,7 @@
     <t>女性</t>
   </si>
   <si>
-    <t>政策_政策_美國_女权主义</t>
+    <t>政策_政策_美国_女权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%A9</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>女性主義歷史</t>
+    <t>女性主义历史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_women%27s_suffrage</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>女性參政權</t>
+    <t>女性参政权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suffrage_in_Australia</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%84%E5%A9%A6%E5%A5%B3%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>英國的婦女參政權</t>
+    <t>英国的妇女参政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A6%87%E5%A5%B3%E9%80%89%E4%B8%BE%E6%9D%83</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%B3%A2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第二波女性主義</t>
+    <t>第二波女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%B3%A2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>第三波女性主義</t>
+    <t>第三波女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_movements_and_ideologies</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府女性主義</t>
+    <t>无政府女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atheist_feminism</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態女性主義</t>
+    <t>生态女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Equality_feminism</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭女性主義</t>
+    <t>伊斯兰女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jewish_feminism</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%80%B2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基進女性主義</t>
+    <t>基进女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Separatist_feminism</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%A9%8D%E6%A5%B5%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性積極女性主義</t>
+    <t>性积极女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_feminism</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>婦女權利</t>
+    <t>妇女权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_effects_on_society</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E5%A5%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>擁女主義</t>
+    <t>拥女主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反女權主義</t>
+    <t>反女权主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Women%27s_health</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>性別平等</t>
+    <t>性别平等</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_and_equality</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E8%A6%96</t>
   </si>
   <si>
-    <t>凝視</t>
+    <t>凝视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Femicide</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%B8%BB%E6%B5%81%E5%8C%96</t>
   </si>
   <si>
-    <t>性別主流化</t>
+    <t>性别主流化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>婦女研究</t>
+    <t>妇女研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E7%A0%94%E7%A9%B6</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E6%80%A7%E6%9B%B8%E5%AF%AB</t>
   </si>
   <si>
-    <t>陰性書寫</t>
+    <t>阴性书写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義人類學</t>
+    <t>女性主义人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_archaeology</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義犯罪學</t>
+    <t>女性主义犯罪学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_economics</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦女神學</t>
+    <t>妇女神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_in_Canada</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中華人民共和國女性主義</t>
+    <t>中华人民共和国女性主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminism_in_Egypt</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9%E5%81%B4%E6%AC%84</t>
   </si>
   <si>
-    <t>Template talk-女權主義側欄</t>
+    <t>Template talk-女权主义侧栏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_theory</t>
@@ -803,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>政治運動</t>
+    <t>政治运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%9D%83</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%81%87%E8%88%87%E8%82%B2%E5%AC%B0%E5%81%87</t>
   </si>
   <si>
-    <t>產假與育嬰假</t>
+    <t>产假与育婴假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%B7%A5%E5%90%8C%E9%85%AC</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性別歧視主義</t>
+    <t>性别歧视主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8A%AF%E7%BD%AA</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BB%E6%9D%BF%E5%8D%B0%E8%B1%A1</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94</t>
   </si>
   <si>
-    <t>身體</t>
+    <t>身体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%8B%99</t>
   </si>
   <si>
-    <t>家務</t>
+    <t>家务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E5%AE%B3</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A6%AA%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>近親性交</t>
+    <t>近亲性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
@@ -971,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%C2%B7%E6%B2%83%E6%96%AF%E9%80%9A%E5%85%8B%E6%8B%89%E5%A4%AB%E7%89%B9</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%AC%8A%E8%BE%AF%E8%AD%B7</t>
   </si>
   <si>
-    <t>女權辯護</t>
+    <t>女权辩护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%BC%E9%87%8C%E5%B8%95%C2%B7%E5%86%AF%C2%B7%E5%86%85%E7%89%B9%E6%96%AF%E6%B5%B7%E5%A7%86</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seneca_Falls,_New_York</t>
@@ -1019,55 +1019,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>婦女參政權</t>
+    <t>妇女参政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E6%8D%89%E8%80%81%E9%BC%A0%E6%B3%95</t>
   </si>
   <si>
-    <t>貓捉老鼠法</t>
+    <t>猫捉老鼠法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E9%A3%9F</t>
   </si>
   <si>
-    <t>絕食</t>
+    <t>绝食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E9%A4%B5%E9%A3%9F</t>
   </si>
   <si>
-    <t>強制餵食</t>
+    <t>强制餵食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>人類學家</t>
+    <t>人类学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
   </si>
   <si>
-    <t>瑪格麗特·米德</t>
+    <t>玛格丽特·米德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bella_Abzug</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E4%BB%BD%E5%AD%90</t>
   </si>
   <si>
-    <t>知識份子</t>
+    <t>知识份子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E6%B0%94%E8%B4%A8</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%B0%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>女性氣質</t>
+    <t>女性气质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E7%BD%A9</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%B9%E5%B8%B6</t>
   </si>
   <si>
-    <t>腹帶</t>
+    <t>腹带</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Corsetry</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%A8%9C</t>
   </si>
   <si>
-    <t>麥當娜</t>
+    <t>麦当娜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AE%B9</t>
@@ -1151,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -1169,49 +1169,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>激進女性主義</t>
+    <t>激进女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9B%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>分離主義</t>
+    <t>分离主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%85%92%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>酷兒理論</t>
+    <t>酷儿理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%BE%E5%90%91</t>
   </si>
   <si>
-    <t>性傾向</t>
+    <t>性倾向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84</t>
@@ -1235,13 +1235,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ruth_Hubbard</t>
@@ -1265,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E8%8E%8E%C2%B7%E8%97%8D%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>麗莎·藍道爾</t>
+    <t>丽莎·蓝道尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8%E4%B8%BB%E4%B9%89</t>
@@ -1283,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5_(%E6%96%87%E5%8C%96)</t>
   </si>
   <si>
-    <t>性別 (文化)</t>
+    <t>性别 (文化)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anne_Fausto-Sterling</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A1%9E</t>
   </si>
   <si>
-    <t>文類</t>
+    <t>文类</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Women_in_science_fiction</t>
@@ -1421,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9</t>
@@ -1481,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E8%A3%BD%E4%BD%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>音樂製作人</t>
+    <t>音乐制作人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%A8%8A%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>音訊工程師</t>
+    <t>音讯工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%91%98</t>
@@ -1541,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%9C%8B%E9%9A%9B%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
   </si>
   <si>
-    <t>愛丁堡國際電影節</t>
+    <t>爱丁堡国际电影节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Teresa_de_Lauretis</t>
@@ -1625,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%92%82%C2%B7%E5%82%85%E7%91%9E%E4%B8%B9</t>
   </si>
   <si>
-    <t>貝蒂·傅瑞丹</t>
+    <t>贝蒂·傅瑞丹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radical_Women</t>
@@ -1691,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/classism</t>
@@ -1727,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E6%80%A7%E8%99%90%E5%BE%85</t>
   </si>
   <si>
-    <t>兒童性虐待</t>
+    <t>儿童性虐待</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Organization_for_Women</t>
@@ -1745,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%A8%B4%E9%9F%8B%E5%BE%B7%E6%A1%88</t>
   </si>
   <si>
-    <t>羅訴韋德案</t>
+    <t>罗诉韦德案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%8A%E5%A8%A0</t>
@@ -1793,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%99%A4%E5%B0%8D%E5%A9%A6%E5%A5%B3%E4%B8%80%E5%88%87%E5%BD%A2%E5%BC%8F%E6%AD%A7%E8%A6%96%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>消除對婦女一切形式歧視公約</t>
+    <t>消除对妇女一切形式歧视公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A</t>
@@ -1805,25 +1805,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>性別意識</t>
+    <t>性别意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%95%E7%88%BE-%E6%B2%83%E5%A4%AB%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>薩丕爾-沃夫假說</t>
+    <t>萨丕尔-沃夫假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%AE%96%E6%B0%91%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後殖民女性主義</t>
+    <t>后殖民女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>印歐語系</t>
+    <t>印欧语系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ordination_of_women</t>
@@ -1925,9 +1925,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%A6%BB%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>分离主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
@@ -1943,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
@@ -1955,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>建築業</t>
+    <t>建筑业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E8%BE%93</t>
@@ -1967,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86</t>
   </si>
   <si>
-    <t>護理</t>
+    <t>护理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
@@ -2081,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%A7%93</t>
   </si>
   <si>
-    <t>雙姓</t>
+    <t>双姓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E7%BA%A6%E9%87%8C%E5%A5%A5-%E5%B1%85%E9%87%8C</t>
@@ -2117,13 +2114,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%81%A9%C2%B7%E6%96%AF%E5%A8%81%E5%BB%B7</t>
   </si>
   <si>
-    <t>萊恩·斯威廷</t>
+    <t>莱恩·斯威廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%97%9D%E7%95%8C</t>
   </si>
   <si>
-    <t>演藝界</t>
+    <t>演艺界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%BB%9B%E4%B8%BD%C2%B7%E8%B5%AB%E6%9C%AC</t>
@@ -2153,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%A8%9C%C2%B7%E8%A5%BF%E7%A7%91%E5%B0%BC</t>
   </si>
   <si>
-    <t>麥當娜·西科尼</t>
+    <t>麦当娜·西科尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%87%E5%84%BF%C2%B7%E6%8B%89%E7%BB%B4%E5%B0%BC</t>
@@ -2261,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%BE%B7%E6%8B%89%C2%B7%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
   </si>
   <si>
-    <t>亞歷山德拉·墨索里尼</t>
+    <t>亚历山德拉·墨索里尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%94%E8%A5%BF%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
@@ -2291,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%AB%E5%A9%A6%E5%88%A5%E5%A7%93%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>日本夫婦別姓問題</t>
+    <t>日本夫妇别姓问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -2369,25 +2366,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%BA%AB%E4%BB%BD%E8%AD%89</t>
   </si>
   <si>
-    <t>香港身份證</t>
+    <t>香港身份证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E9%84%AD%E6%9C%88%E5%A8%A5</t>
   </si>
   <si>
-    <t>林鄭月娥</t>
+    <t>林郑月娥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%8A%89%E6%B7%91%E5%84%80</t>
   </si>
   <si>
-    <t>葉劉淑儀</t>
+    <t>叶刘淑仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8C%83%E6%A4%92%E8%8A%AC</t>
   </si>
   <si>
-    <t>羅范椒芬</t>
+    <t>罗范椒芬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%8B%8F%E8%81%94</t>
@@ -2477,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E8%B2%B6%E6%8A%91</t>
   </si>
   <si>
-    <t>男性貶抑</t>
+    <t>男性贬抑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Stanford_Encyclopedia_of_Philosophy</t>
@@ -2507,15 +2504,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%A0%B1</t>
   </si>
   <si>
-    <t>成報</t>
+    <t>成报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E7%94%B7%E8%BD%BB%E5%A5%B3</t>
   </si>
   <si>
@@ -2525,33 +2519,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%B8%E5%AD%B8%E8%AA%8C</t>
   </si>
   <si>
-    <t>女學學誌</t>
+    <t>女学学志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E8%88%87%E7%94%B7%E6%80%A7</t>
   </si>
   <si>
-    <t>女性主義與男性</t>
+    <t>女性主义与男性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%A7%A6</t>
   </si>
   <si>
-    <t>強姦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>性騷擾</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_feminism</t>
   </si>
   <si>
@@ -2567,9 +2555,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
-    <t>歧视</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%BE%84%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
@@ -2609,7 +2594,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98%E6%AD%A7%E8%A7%86</t>
@@ -2627,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E6%80%A7%E6%88%80%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>異性戀霸權</t>
+    <t>异性恋霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B%E6%81%90%E6%83%A7%E7%97%87</t>
@@ -2639,13 +2624,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>雙性戀恐懼症</t>
+    <t>双性恋恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>女同性戀恐懼症</t>
+    <t>女同性恋恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AB%8C%E7%94%B7%E7%97%87</t>
@@ -2657,13 +2642,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>跨性別恐懼症</t>
+    <t>跨性别恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E8%B7%A8%E5%A5%B3%E7%97%87</t>
   </si>
   <si>
-    <t>厭跨女症</t>
+    <t>厌跨女症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%BB%E4%B9%89</t>
@@ -2687,7 +2672,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8F%AF</t>
   </si>
   <si>
-    <t>反華</t>
+    <t>反华</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-Estonian_sentiment</t>
@@ -2735,7 +2720,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%A6%AC%E4%BE%86%E6%83%85%E7%B7%92</t>
   </si>
   <si>
-    <t>反馬來情緒</t>
+    <t>反马来情绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%BB%A1</t>
@@ -2783,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%91%A9%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>反摩門教</t>
+    <t>反摩门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%81%90%E6%83%A7%E7%97%87</t>
@@ -2855,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E8%A8%80%E8%AB%96</t>
   </si>
   <si>
-    <t>仇恨言論</t>
+    <t>仇恨言论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E5%88%91</t>
@@ -2909,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>仇恨團體</t>
+    <t>仇恨团体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kahanism</t>
@@ -2957,7 +2942,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E5%A5%B4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>廢奴主義</t>
+    <t>废奴主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Autism_rights_movement</t>
@@ -2981,25 +2966,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0LGBT%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>各地LGBT權利</t>
+    <t>各地LGBT权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>男性主義</t>
+    <t>男性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>婦女投票權</t>
+    <t>妇女投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
@@ -3017,7 +3002,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internment</t>
@@ -3035,7 +3020,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>宗教隔離</t>
+    <t>宗教隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Redlining</t>
@@ -3059,13 +3044,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8C%97%E8%BC%95%E5%8D%97</t>
   </si>
   <si>
-    <t>重北輕南</t>
+    <t>重北轻南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E4%BC%9A%E5%9D%87%E7%AD%89</t>
@@ -3119,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>本土主義</t>
+    <t>本土主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB%E6%B3%95</t>
@@ -3137,13 +3122,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%85%8B%E5%8B%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>吉姆·克勞法</t>
+    <t>吉姆·克劳法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%80%AB%E5%A0%A1%E6%B3%95</t>
   </si>
   <si>
-    <t>紐倫堡法</t>
+    <t>纽伦堡法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%B8%BB%E5%9C%9F%E5%9C%B0</t>
@@ -3197,7 +3182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%84%AA%E8%B6%8A%E6%84%9F</t>
   </si>
   <si>
-    <t>民族優越感</t>
+    <t>民族优越感</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gynocentrism</t>
@@ -3227,13 +3212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E6%94%BF%E7%AD%96</t>
@@ -3263,7 +3248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Missing_white_woman_syndrome</t>
@@ -3275,7 +3260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3293,7 +3278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
@@ -13301,7 +13286,7 @@
         <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>636</v>
+        <v>390</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13356,10 +13341,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>636</v>
+      </c>
+      <c r="F335" t="s">
         <v>637</v>
-      </c>
-      <c r="F335" t="s">
-        <v>638</v>
       </c>
       <c r="G335" t="n">
         <v>6</v>
@@ -13385,10 +13370,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>638</v>
+      </c>
+      <c r="F336" t="s">
         <v>639</v>
-      </c>
-      <c r="F336" t="s">
-        <v>640</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13414,10 +13399,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>640</v>
+      </c>
+      <c r="F337" t="s">
         <v>641</v>
-      </c>
-      <c r="F337" t="s">
-        <v>642</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -13443,10 +13428,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>642</v>
+      </c>
+      <c r="F338" t="s">
         <v>643</v>
-      </c>
-      <c r="F338" t="s">
-        <v>644</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13472,10 +13457,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>644</v>
+      </c>
+      <c r="F339" t="s">
         <v>645</v>
-      </c>
-      <c r="F339" t="s">
-        <v>646</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13501,10 +13486,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>646</v>
+      </c>
+      <c r="F340" t="s">
         <v>647</v>
-      </c>
-      <c r="F340" t="s">
-        <v>648</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13530,10 +13515,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>648</v>
+      </c>
+      <c r="F341" t="s">
         <v>649</v>
-      </c>
-      <c r="F341" t="s">
-        <v>650</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13559,10 +13544,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>650</v>
+      </c>
+      <c r="F342" t="s">
         <v>651</v>
-      </c>
-      <c r="F342" t="s">
-        <v>652</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13588,10 +13573,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>652</v>
+      </c>
+      <c r="F343" t="s">
         <v>653</v>
-      </c>
-      <c r="F343" t="s">
-        <v>654</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13617,10 +13602,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>654</v>
+      </c>
+      <c r="F344" t="s">
         <v>655</v>
-      </c>
-      <c r="F344" t="s">
-        <v>656</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13646,10 +13631,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>656</v>
+      </c>
+      <c r="F345" t="s">
         <v>657</v>
-      </c>
-      <c r="F345" t="s">
-        <v>658</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13675,10 +13660,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>658</v>
+      </c>
+      <c r="F346" t="s">
         <v>659</v>
-      </c>
-      <c r="F346" t="s">
-        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>6</v>
@@ -13704,10 +13689,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>660</v>
+      </c>
+      <c r="F347" t="s">
         <v>661</v>
-      </c>
-      <c r="F347" t="s">
-        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13733,10 +13718,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>662</v>
+      </c>
+      <c r="F348" t="s">
         <v>663</v>
-      </c>
-      <c r="F348" t="s">
-        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>6</v>
@@ -13762,10 +13747,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>664</v>
+      </c>
+      <c r="F349" t="s">
         <v>665</v>
-      </c>
-      <c r="F349" t="s">
-        <v>666</v>
       </c>
       <c r="G349" t="n">
         <v>9</v>
@@ -13791,10 +13776,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>666</v>
+      </c>
+      <c r="F350" t="s">
         <v>667</v>
-      </c>
-      <c r="F350" t="s">
-        <v>668</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13820,10 +13805,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>668</v>
+      </c>
+      <c r="F351" t="s">
         <v>669</v>
-      </c>
-      <c r="F351" t="s">
-        <v>670</v>
       </c>
       <c r="G351" t="n">
         <v>11</v>
@@ -13849,10 +13834,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>670</v>
+      </c>
+      <c r="F352" t="s">
         <v>671</v>
-      </c>
-      <c r="F352" t="s">
-        <v>672</v>
       </c>
       <c r="G352" t="n">
         <v>8</v>
@@ -13878,10 +13863,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>672</v>
+      </c>
+      <c r="F353" t="s">
         <v>673</v>
-      </c>
-      <c r="F353" t="s">
-        <v>674</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13907,10 +13892,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>674</v>
+      </c>
+      <c r="F354" t="s">
         <v>675</v>
-      </c>
-      <c r="F354" t="s">
-        <v>676</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13936,10 +13921,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>676</v>
+      </c>
+      <c r="F355" t="s">
         <v>677</v>
-      </c>
-      <c r="F355" t="s">
-        <v>678</v>
       </c>
       <c r="G355" t="n">
         <v>25</v>
@@ -13965,10 +13950,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>678</v>
+      </c>
+      <c r="F356" t="s">
         <v>679</v>
-      </c>
-      <c r="F356" t="s">
-        <v>680</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13994,10 +13979,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>680</v>
+      </c>
+      <c r="F357" t="s">
         <v>681</v>
-      </c>
-      <c r="F357" t="s">
-        <v>682</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14023,10 +14008,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>682</v>
+      </c>
+      <c r="F358" t="s">
         <v>683</v>
-      </c>
-      <c r="F358" t="s">
-        <v>684</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14052,10 +14037,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>684</v>
+      </c>
+      <c r="F359" t="s">
         <v>685</v>
-      </c>
-      <c r="F359" t="s">
-        <v>686</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14081,10 +14066,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>686</v>
+      </c>
+      <c r="F360" t="s">
         <v>687</v>
-      </c>
-      <c r="F360" t="s">
-        <v>688</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -14110,10 +14095,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>688</v>
+      </c>
+      <c r="F361" t="s">
         <v>689</v>
-      </c>
-      <c r="F361" t="s">
-        <v>690</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14139,10 +14124,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>690</v>
+      </c>
+      <c r="F362" t="s">
         <v>691</v>
-      </c>
-      <c r="F362" t="s">
-        <v>692</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14168,10 +14153,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>692</v>
+      </c>
+      <c r="F363" t="s">
         <v>693</v>
-      </c>
-      <c r="F363" t="s">
-        <v>694</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14197,10 +14182,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>694</v>
+      </c>
+      <c r="F364" t="s">
         <v>695</v>
-      </c>
-      <c r="F364" t="s">
-        <v>696</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14226,10 +14211,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>696</v>
+      </c>
+      <c r="F365" t="s">
         <v>697</v>
-      </c>
-      <c r="F365" t="s">
-        <v>698</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14255,10 +14240,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>698</v>
+      </c>
+      <c r="F366" t="s">
         <v>699</v>
-      </c>
-      <c r="F366" t="s">
-        <v>700</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14284,10 +14269,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>700</v>
+      </c>
+      <c r="F367" t="s">
         <v>701</v>
-      </c>
-      <c r="F367" t="s">
-        <v>702</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14313,10 +14298,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>702</v>
+      </c>
+      <c r="F368" t="s">
         <v>703</v>
-      </c>
-      <c r="F368" t="s">
-        <v>704</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14342,10 +14327,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>704</v>
+      </c>
+      <c r="F369" t="s">
         <v>705</v>
-      </c>
-      <c r="F369" t="s">
-        <v>706</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14371,10 +14356,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>706</v>
+      </c>
+      <c r="F370" t="s">
         <v>707</v>
-      </c>
-      <c r="F370" t="s">
-        <v>708</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14400,10 +14385,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>708</v>
+      </c>
+      <c r="F371" t="s">
         <v>709</v>
-      </c>
-      <c r="F371" t="s">
-        <v>710</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14429,10 +14414,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>710</v>
+      </c>
+      <c r="F372" t="s">
         <v>711</v>
-      </c>
-      <c r="F372" t="s">
-        <v>712</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14458,10 +14443,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>712</v>
+      </c>
+      <c r="F373" t="s">
         <v>713</v>
-      </c>
-      <c r="F373" t="s">
-        <v>714</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14487,10 +14472,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>714</v>
+      </c>
+      <c r="F374" t="s">
         <v>715</v>
-      </c>
-      <c r="F374" t="s">
-        <v>716</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14516,10 +14501,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>716</v>
+      </c>
+      <c r="F375" t="s">
         <v>717</v>
-      </c>
-      <c r="F375" t="s">
-        <v>718</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14545,10 +14530,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>718</v>
+      </c>
+      <c r="F376" t="s">
         <v>719</v>
-      </c>
-      <c r="F376" t="s">
-        <v>720</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14574,10 +14559,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>720</v>
+      </c>
+      <c r="F377" t="s">
         <v>721</v>
-      </c>
-      <c r="F377" t="s">
-        <v>722</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14603,10 +14588,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>722</v>
+      </c>
+      <c r="F378" t="s">
         <v>723</v>
-      </c>
-      <c r="F378" t="s">
-        <v>724</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14632,10 +14617,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>724</v>
+      </c>
+      <c r="F379" t="s">
         <v>725</v>
-      </c>
-      <c r="F379" t="s">
-        <v>726</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14661,10 +14646,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>726</v>
+      </c>
+      <c r="F380" t="s">
         <v>727</v>
-      </c>
-      <c r="F380" t="s">
-        <v>728</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14690,10 +14675,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>728</v>
+      </c>
+      <c r="F381" t="s">
         <v>729</v>
-      </c>
-      <c r="F381" t="s">
-        <v>730</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14719,10 +14704,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>730</v>
+      </c>
+      <c r="F382" t="s">
         <v>731</v>
-      </c>
-      <c r="F382" t="s">
-        <v>732</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14748,10 +14733,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>732</v>
+      </c>
+      <c r="F383" t="s">
         <v>733</v>
-      </c>
-      <c r="F383" t="s">
-        <v>734</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14777,10 +14762,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>734</v>
+      </c>
+      <c r="F384" t="s">
         <v>735</v>
-      </c>
-      <c r="F384" t="s">
-        <v>736</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14806,10 +14791,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>736</v>
+      </c>
+      <c r="F385" t="s">
         <v>737</v>
-      </c>
-      <c r="F385" t="s">
-        <v>738</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14835,10 +14820,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>738</v>
+      </c>
+      <c r="F386" t="s">
         <v>739</v>
-      </c>
-      <c r="F386" t="s">
-        <v>740</v>
       </c>
       <c r="G386" t="n">
         <v>4</v>
@@ -14864,10 +14849,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>740</v>
+      </c>
+      <c r="F387" t="s">
         <v>741</v>
-      </c>
-      <c r="F387" t="s">
-        <v>742</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14893,10 +14878,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>742</v>
+      </c>
+      <c r="F388" t="s">
         <v>743</v>
-      </c>
-      <c r="F388" t="s">
-        <v>744</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14922,10 +14907,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>744</v>
+      </c>
+      <c r="F389" t="s">
         <v>745</v>
-      </c>
-      <c r="F389" t="s">
-        <v>746</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14951,10 +14936,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>746</v>
+      </c>
+      <c r="F390" t="s">
         <v>747</v>
-      </c>
-      <c r="F390" t="s">
-        <v>748</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14980,10 +14965,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>748</v>
+      </c>
+      <c r="F391" t="s">
         <v>749</v>
-      </c>
-      <c r="F391" t="s">
-        <v>750</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15009,10 +14994,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>750</v>
+      </c>
+      <c r="F392" t="s">
         <v>751</v>
-      </c>
-      <c r="F392" t="s">
-        <v>752</v>
       </c>
       <c r="G392" t="n">
         <v>4</v>
@@ -15038,10 +15023,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>752</v>
+      </c>
+      <c r="F393" t="s">
         <v>753</v>
-      </c>
-      <c r="F393" t="s">
-        <v>754</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15067,10 +15052,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>754</v>
+      </c>
+      <c r="F394" t="s">
         <v>755</v>
-      </c>
-      <c r="F394" t="s">
-        <v>756</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15096,10 +15081,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>756</v>
+      </c>
+      <c r="F395" t="s">
         <v>757</v>
-      </c>
-      <c r="F395" t="s">
-        <v>758</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15125,10 +15110,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>758</v>
+      </c>
+      <c r="F396" t="s">
         <v>759</v>
-      </c>
-      <c r="F396" t="s">
-        <v>760</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15154,10 +15139,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>760</v>
+      </c>
+      <c r="F397" t="s">
         <v>761</v>
-      </c>
-      <c r="F397" t="s">
-        <v>762</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15183,10 +15168,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>762</v>
+      </c>
+      <c r="F398" t="s">
         <v>763</v>
-      </c>
-      <c r="F398" t="s">
-        <v>764</v>
       </c>
       <c r="G398" t="n">
         <v>5</v>
@@ -15212,10 +15197,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>764</v>
+      </c>
+      <c r="F399" t="s">
         <v>765</v>
-      </c>
-      <c r="F399" t="s">
-        <v>766</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15241,10 +15226,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>766</v>
+      </c>
+      <c r="F400" t="s">
         <v>767</v>
-      </c>
-      <c r="F400" t="s">
-        <v>768</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15270,10 +15255,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>768</v>
+      </c>
+      <c r="F401" t="s">
         <v>769</v>
-      </c>
-      <c r="F401" t="s">
-        <v>770</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15299,10 +15284,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>770</v>
+      </c>
+      <c r="F402" t="s">
         <v>771</v>
-      </c>
-      <c r="F402" t="s">
-        <v>772</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15328,10 +15313,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>772</v>
+      </c>
+      <c r="F403" t="s">
         <v>773</v>
-      </c>
-      <c r="F403" t="s">
-        <v>774</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15357,10 +15342,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>774</v>
+      </c>
+      <c r="F404" t="s">
         <v>775</v>
-      </c>
-      <c r="F404" t="s">
-        <v>776</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15386,10 +15371,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>776</v>
+      </c>
+      <c r="F405" t="s">
         <v>777</v>
-      </c>
-      <c r="F405" t="s">
-        <v>778</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15415,10 +15400,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>778</v>
+      </c>
+      <c r="F406" t="s">
         <v>779</v>
-      </c>
-      <c r="F406" t="s">
-        <v>780</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15444,10 +15429,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>780</v>
+      </c>
+      <c r="F407" t="s">
         <v>781</v>
-      </c>
-      <c r="F407" t="s">
-        <v>782</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15473,10 +15458,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>782</v>
+      </c>
+      <c r="F408" t="s">
         <v>783</v>
-      </c>
-      <c r="F408" t="s">
-        <v>784</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15502,10 +15487,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>784</v>
+      </c>
+      <c r="F409" t="s">
         <v>785</v>
-      </c>
-      <c r="F409" t="s">
-        <v>786</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15531,10 +15516,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>786</v>
+      </c>
+      <c r="F410" t="s">
         <v>787</v>
-      </c>
-      <c r="F410" t="s">
-        <v>788</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15560,10 +15545,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>788</v>
+      </c>
+      <c r="F411" t="s">
         <v>789</v>
-      </c>
-      <c r="F411" t="s">
-        <v>790</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15589,10 +15574,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>790</v>
+      </c>
+      <c r="F412" t="s">
         <v>791</v>
-      </c>
-      <c r="F412" t="s">
-        <v>792</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15618,10 +15603,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>792</v>
+      </c>
+      <c r="F413" t="s">
         <v>793</v>
-      </c>
-      <c r="F413" t="s">
-        <v>794</v>
       </c>
       <c r="G413" t="n">
         <v>4</v>
@@ -15647,10 +15632,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>794</v>
+      </c>
+      <c r="F414" t="s">
         <v>795</v>
-      </c>
-      <c r="F414" t="s">
-        <v>796</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15676,10 +15661,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>796</v>
+      </c>
+      <c r="F415" t="s">
         <v>797</v>
-      </c>
-      <c r="F415" t="s">
-        <v>798</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15705,10 +15690,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>798</v>
+      </c>
+      <c r="F416" t="s">
         <v>799</v>
-      </c>
-      <c r="F416" t="s">
-        <v>800</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15734,10 +15719,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>800</v>
+      </c>
+      <c r="F417" t="s">
         <v>801</v>
-      </c>
-      <c r="F417" t="s">
-        <v>802</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15763,10 +15748,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>802</v>
+      </c>
+      <c r="F418" t="s">
         <v>803</v>
-      </c>
-      <c r="F418" t="s">
-        <v>804</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -15792,10 +15777,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>804</v>
+      </c>
+      <c r="F419" t="s">
         <v>805</v>
-      </c>
-      <c r="F419" t="s">
-        <v>806</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15821,10 +15806,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>806</v>
+      </c>
+      <c r="F420" t="s">
         <v>807</v>
-      </c>
-      <c r="F420" t="s">
-        <v>808</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15850,10 +15835,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>808</v>
+      </c>
+      <c r="F421" t="s">
         <v>809</v>
-      </c>
-      <c r="F421" t="s">
-        <v>810</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15879,10 +15864,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>810</v>
+      </c>
+      <c r="F422" t="s">
         <v>811</v>
-      </c>
-      <c r="F422" t="s">
-        <v>812</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15908,10 +15893,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>812</v>
+      </c>
+      <c r="F423" t="s">
         <v>813</v>
-      </c>
-      <c r="F423" t="s">
-        <v>814</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15937,10 +15922,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>814</v>
+      </c>
+      <c r="F424" t="s">
         <v>815</v>
-      </c>
-      <c r="F424" t="s">
-        <v>816</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15966,10 +15951,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>816</v>
+      </c>
+      <c r="F425" t="s">
         <v>817</v>
-      </c>
-      <c r="F425" t="s">
-        <v>818</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15995,10 +15980,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>818</v>
+      </c>
+      <c r="F426" t="s">
         <v>819</v>
-      </c>
-      <c r="F426" t="s">
-        <v>820</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16024,10 +16009,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>820</v>
+      </c>
+      <c r="F427" t="s">
         <v>821</v>
-      </c>
-      <c r="F427" t="s">
-        <v>822</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16053,10 +16038,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>822</v>
+      </c>
+      <c r="F428" t="s">
         <v>823</v>
-      </c>
-      <c r="F428" t="s">
-        <v>824</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16082,10 +16067,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>824</v>
+      </c>
+      <c r="F429" t="s">
         <v>825</v>
-      </c>
-      <c r="F429" t="s">
-        <v>826</v>
       </c>
       <c r="G429" t="n">
         <v>4</v>
@@ -16111,10 +16096,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>826</v>
+      </c>
+      <c r="F430" t="s">
         <v>827</v>
-      </c>
-      <c r="F430" t="s">
-        <v>828</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -16140,10 +16125,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>828</v>
+      </c>
+      <c r="F431" t="s">
         <v>829</v>
-      </c>
-      <c r="F431" t="s">
-        <v>830</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16169,10 +16154,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F432" t="s">
-        <v>832</v>
+        <v>566</v>
       </c>
       <c r="G432" t="n">
         <v>3</v>
@@ -16198,10 +16183,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F433" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16256,10 +16241,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F435" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16285,10 +16270,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F436" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16314,10 +16299,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F437" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16343,10 +16328,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F438" t="s">
-        <v>842</v>
+        <v>312</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16372,10 +16357,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F439" t="s">
-        <v>844</v>
+        <v>282</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16401,10 +16386,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F440" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16459,10 +16444,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F442" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16488,10 +16473,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F443" t="s">
-        <v>850</v>
+        <v>288</v>
       </c>
       <c r="G443" t="n">
         <v>34</v>
@@ -16517,10 +16502,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F444" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16546,10 +16531,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F445" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16575,10 +16560,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F446" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G446" t="n">
         <v>5</v>
@@ -16604,10 +16589,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F447" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16633,10 +16618,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F448" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G448" t="n">
         <v>4</v>
@@ -16662,10 +16647,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F449" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16691,10 +16676,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F450" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16720,10 +16705,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F451" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16749,10 +16734,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F452" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16778,10 +16763,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F453" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16807,10 +16792,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F454" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16836,10 +16821,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F455" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16865,10 +16850,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F456" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16894,10 +16879,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F457" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16952,10 +16937,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F459" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16981,10 +16966,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F460" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17010,10 +16995,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F461" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -17039,10 +17024,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F462" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G462" t="n">
         <v>3</v>
@@ -17068,10 +17053,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F463" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17097,10 +17082,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G464" t="n">
         <v>6</v>
@@ -17126,10 +17111,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17155,10 +17140,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G466" t="n">
         <v>3</v>
@@ -17184,10 +17169,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F467" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17213,10 +17198,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F468" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17242,10 +17227,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F469" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17271,10 +17256,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F470" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G470" t="n">
         <v>4</v>
@@ -17300,10 +17285,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F471" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17329,10 +17314,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F472" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17358,10 +17343,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F473" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17387,10 +17372,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F474" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17416,10 +17401,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F475" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17445,10 +17430,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F476" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17474,10 +17459,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F477" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17503,10 +17488,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F478" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17532,10 +17517,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F479" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17561,10 +17546,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17590,10 +17575,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F481" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G481" t="n">
         <v>3</v>
@@ -17619,10 +17604,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F482" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G482" t="n">
         <v>4</v>
@@ -17648,10 +17633,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F483" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17677,10 +17662,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F484" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17706,10 +17691,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F485" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17735,10 +17720,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F486" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17764,10 +17749,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F487" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17793,10 +17778,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F488" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G488" t="n">
         <v>2</v>
@@ -17822,10 +17807,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F489" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17851,10 +17836,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F490" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17880,10 +17865,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F491" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -17909,10 +17894,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F492" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17938,10 +17923,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F493" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17967,10 +17952,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F494" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17996,10 +17981,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F495" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18025,10 +18010,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F496" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18054,10 +18039,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F497" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18083,10 +18068,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F498" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18112,10 +18097,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F499" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18141,10 +18126,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F500" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18170,10 +18155,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F501" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18199,10 +18184,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F502" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18228,10 +18213,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F503" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18257,10 +18242,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F504" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18286,10 +18271,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F505" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18315,10 +18300,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F506" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18344,10 +18329,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F507" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G507" t="n">
         <v>2</v>
@@ -18373,10 +18358,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F508" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18402,10 +18387,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F509" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18431,10 +18416,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F510" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18460,10 +18445,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F511" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18489,10 +18474,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F512" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18518,10 +18503,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F513" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18547,10 +18532,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F514" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18576,10 +18561,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F515" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18605,10 +18590,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F516" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18692,10 +18677,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F519" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G519" t="n">
         <v>19</v>
@@ -18721,10 +18706,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F520" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18750,10 +18735,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F521" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -18779,10 +18764,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F522" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18808,10 +18793,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F523" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18837,10 +18822,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F524" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G524" t="n">
         <v>15</v>
@@ -18866,10 +18851,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F525" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G525" t="n">
         <v>13</v>
@@ -18895,10 +18880,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F526" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -18924,10 +18909,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F527" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -18953,10 +18938,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F528" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -18982,10 +18967,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F529" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19011,10 +18996,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F530" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19040,10 +19025,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F531" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19069,10 +19054,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F532" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19098,10 +19083,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F533" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19127,10 +19112,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F534" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19156,10 +19141,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F535" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19185,10 +19170,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F536" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19214,10 +19199,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F537" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19243,10 +19228,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F538" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -19272,10 +19257,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F539" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19301,10 +19286,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F540" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19330,10 +19315,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F541" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G541" t="n">
         <v>2</v>
@@ -19359,10 +19344,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F542" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19388,10 +19373,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F543" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19417,10 +19402,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F544" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19446,10 +19431,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F545" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19475,10 +19460,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F546" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19504,10 +19489,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F547" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19533,10 +19518,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F548" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19562,10 +19547,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F549" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19591,10 +19576,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F550" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G550" t="n">
         <v>2</v>
@@ -19620,10 +19605,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="F551" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -19649,10 +19634,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F552" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19678,10 +19663,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F553" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -19707,10 +19692,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F554" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -19736,10 +19721,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F555" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19765,10 +19750,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F556" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -19794,10 +19779,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F557" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19823,10 +19808,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F558" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19852,10 +19837,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F559" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19881,10 +19866,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="F560" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="G560" t="n">
         <v>2</v>
@@ -19910,10 +19895,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="F561" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19939,10 +19924,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F562" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G562" t="n">
         <v>3</v>
@@ -19968,10 +19953,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F563" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19997,10 +19982,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F564" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20026,10 +20011,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F565" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20055,10 +20040,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F566" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="G566" t="n">
         <v>3</v>
@@ -20084,10 +20069,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F567" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20113,10 +20098,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F568" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20142,10 +20127,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F569" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20171,10 +20156,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F570" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G570" t="n">
         <v>21</v>
@@ -20200,10 +20185,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F571" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>

--- a/xlsx/女权主义_intext.xlsx
+++ b/xlsx/女权主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>女性</t>
   </si>
   <si>
-    <t>政策_政策_美國_女权主义</t>
+    <t>体育运动_体育运动_种族歧视_女权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%A9</t>
@@ -12811,7 +12811,7 @@
         <v>606</v>
       </c>
       <c r="G316" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
